--- a/submission/ff7845ea074d_TGS.xlsx
+++ b/submission/ff7845ea074d_TGS.xlsx
@@ -396,7 +396,7 @@
         <v>6984</v>
       </c>
       <c r="B2">
-        <v>90.38349151611328</v>
+        <v>98.33525848388672</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6984.5</v>
       </c>
       <c r="B3">
-        <v>88.58798980712891</v>
+        <v>97.19504547119141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>6985</v>
       </c>
       <c r="B4">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>6985.5</v>
       </c>
       <c r="B5">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>6986</v>
       </c>
       <c r="B6">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>6986.5</v>
       </c>
       <c r="B7">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>6987</v>
       </c>
       <c r="B8">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>6987.5</v>
       </c>
       <c r="B9">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>6988</v>
       </c>
       <c r="B10">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>6988.5</v>
       </c>
       <c r="B11">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>6989</v>
       </c>
       <c r="B12">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>6989.5</v>
       </c>
       <c r="B13">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>6990</v>
       </c>
       <c r="B14">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>6990.5</v>
       </c>
       <c r="B15">
-        <v>87.52474212646484</v>
+        <v>96.25555419921875</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>6991</v>
       </c>
       <c r="B16">
-        <v>88.58798980712891</v>
+        <v>97.58480072021484</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>6991.5</v>
       </c>
       <c r="B17">
-        <v>88.58798980712891</v>
+        <v>97.19504547119141</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -29716,7 +29716,7 @@
         <v>8816.5</v>
       </c>
       <c r="B3667">
-        <v>92.82769012451172</v>
+        <v>91.80691528320312</v>
       </c>
     </row>
     <row r="3668" spans="1:2">
@@ -29724,7 +29724,7 @@
         <v>8817</v>
       </c>
       <c r="B3668">
-        <v>94.71845245361328</v>
+        <v>92.59171295166016</v>
       </c>
     </row>
     <row r="3669" spans="1:2">
@@ -29732,7 +29732,7 @@
         <v>8817.5</v>
       </c>
       <c r="B3669">
-        <v>94.71845245361328</v>
+        <v>92.59171295166016</v>
       </c>
     </row>
     <row r="3670" spans="1:2">
@@ -29740,7 +29740,7 @@
         <v>8818</v>
       </c>
       <c r="B3670">
-        <v>95.20335388183594</v>
+        <v>93.68262481689453</v>
       </c>
     </row>
     <row r="3671" spans="1:2">
@@ -29748,7 +29748,7 @@
         <v>8818.5</v>
       </c>
       <c r="B3671">
-        <v>95.58274841308594</v>
+        <v>94.06201934814453</v>
       </c>
     </row>
     <row r="3672" spans="1:2">
@@ -29756,7 +29756,7 @@
         <v>8819</v>
       </c>
       <c r="B3672">
-        <v>98.56655120849609</v>
+        <v>93.49350738525391</v>
       </c>
     </row>
   </sheetData>
